--- a/data/trans_orig/P39C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{460B17D7-1371-4BA6-BA29-711AE8F32BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{253CC21A-A22B-4D37-8900-652B403D34A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0169FEF7-9258-4735-A150-71FF66F80353}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D926821-B225-40A2-9EB0-300432230248}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="602">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2015 (Tasa respuesta: 81,21%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>14,96%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -105,1738 +105,1744 @@
     <t>38,7%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>37,41%</t>
   </si>
   <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
   <si>
     <t>23,3%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>16,32%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>17,29%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>19,27%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB153E9-71C6-4BC2-9168-98523AC8D926}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1658321-9556-4E6C-BCC7-3CB9D7E9368A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2510,13 +2516,13 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>18</v>
@@ -2525,13 +2531,13 @@
         <v>18840</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -2540,13 +2546,13 @@
         <v>21654</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -2555,19 +2561,19 @@
         <v>40494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>27</v>
@@ -2576,13 +2582,13 @@
         <v>29084</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -2591,13 +2597,13 @@
         <v>40784</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -2606,13 +2612,13 @@
         <v>69868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2633,13 @@
         <v>215030</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>248</v>
@@ -2642,13 +2648,13 @@
         <v>244070</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>450</v>
@@ -2657,18 +2663,18 @@
         <v>459100</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2680,13 +2686,13 @@
         <v>72233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2695,13 +2701,13 @@
         <v>48919</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -2710,13 +2716,13 @@
         <v>121152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2737,13 @@
         <v>133767</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>146</v>
@@ -2746,13 +2752,13 @@
         <v>143051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
@@ -2761,13 +2767,13 @@
         <v>276818</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2788,13 @@
         <v>106971</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -2797,13 +2803,13 @@
         <v>142110</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>252</v>
@@ -2812,19 +2818,19 @@
         <v>249081</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>26</v>
@@ -2833,13 +2839,13 @@
         <v>26907</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -2848,13 +2854,13 @@
         <v>46803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -2863,19 +2869,19 @@
         <v>73710</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>36</v>
@@ -2884,13 +2890,13 @@
         <v>36972</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>72</v>
@@ -2899,13 +2905,13 @@
         <v>71412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>108</v>
@@ -2914,13 +2920,13 @@
         <v>108384</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2941,13 @@
         <v>376850</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>464</v>
@@ -2950,13 +2956,13 @@
         <v>452295</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>829</v>
@@ -2965,18 +2971,18 @@
         <v>829145</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2988,13 +2994,13 @@
         <v>71870</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -3003,13 +3009,13 @@
         <v>77629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -3018,13 +3024,13 @@
         <v>149498</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3045,13 @@
         <v>166667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -3054,13 +3060,13 @@
         <v>157667</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
@@ -3069,13 +3075,13 @@
         <v>324334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3096,13 @@
         <v>161055</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>154</v>
@@ -3105,13 +3111,13 @@
         <v>154492</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>308</v>
@@ -3120,19 +3126,19 @@
         <v>315547</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>50</v>
@@ -3141,13 +3147,13 @@
         <v>55074</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -3156,13 +3162,13 @@
         <v>61727</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -3171,19 +3177,19 @@
         <v>116802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>59</v>
@@ -3192,13 +3198,13 @@
         <v>62934</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -3207,13 +3213,13 @@
         <v>91767</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>152</v>
@@ -3222,13 +3228,13 @@
         <v>154700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3249,13 @@
         <v>517600</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>547</v>
@@ -3258,13 +3264,13 @@
         <v>543281</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1040</v>
@@ -3273,18 +3279,18 @@
         <v>1060881</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3296,13 +3302,13 @@
         <v>73878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -3311,13 +3317,13 @@
         <v>60922</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -3326,13 +3332,13 @@
         <v>134800</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3353,13 @@
         <v>143387</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="H23" s="7">
         <v>160</v>
@@ -3362,13 +3368,13 @@
         <v>172891</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>290</v>
@@ -3377,13 +3383,13 @@
         <v>316278</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3404,13 @@
         <v>154165</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>151</v>
@@ -3413,13 +3419,13 @@
         <v>165067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>290</v>
@@ -3428,19 +3434,19 @@
         <v>319232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>61</v>
@@ -3449,13 +3455,13 @@
         <v>67937</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -3464,13 +3470,13 @@
         <v>78822</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -3479,19 +3485,19 @@
         <v>146759</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>83</v>
@@ -3500,13 +3506,13 @@
         <v>93197</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3515,13 +3521,13 @@
         <v>90105</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>167</v>
@@ -3530,13 +3536,13 @@
         <v>183302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3557,13 @@
         <v>532564</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>527</v>
@@ -3566,13 +3572,13 @@
         <v>567807</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1009</v>
@@ -3581,18 +3587,18 @@
         <v>1100372</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3604,13 +3610,13 @@
         <v>42541</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -3619,13 +3625,13 @@
         <v>24961</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>59</v>
@@ -3634,13 +3640,13 @@
         <v>67502</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3661,13 @@
         <v>101856</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>92</v>
@@ -3670,13 +3676,13 @@
         <v>106229</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>182</v>
@@ -3685,13 +3691,13 @@
         <v>208085</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3712,13 @@
         <v>126610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>117</v>
@@ -3721,13 +3727,13 @@
         <v>134696</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>231</v>
@@ -3736,19 +3742,19 @@
         <v>261306</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>63</v>
@@ -3757,13 +3763,13 @@
         <v>72407</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -3772,13 +3778,13 @@
         <v>75339</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -3787,19 +3793,19 @@
         <v>147746</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>81</v>
@@ -3808,13 +3814,13 @@
         <v>89847</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H32" s="7">
         <v>98</v>
@@ -3823,13 +3829,13 @@
         <v>111362</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M32" s="7">
         <v>179</v>
@@ -3838,13 +3844,13 @@
         <v>201209</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3865,13 @@
         <v>433261</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>395</v>
@@ -3874,13 +3880,13 @@
         <v>452587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>781</v>
@@ -3889,18 +3895,18 @@
         <v>885848</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3912,13 +3918,13 @@
         <v>19495</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -3927,13 +3933,13 @@
         <v>16829</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>34</v>
@@ -3942,13 +3948,13 @@
         <v>36325</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3969,13 @@
         <v>96218</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H35" s="7">
         <v>94</v>
@@ -3978,13 +3984,13 @@
         <v>111441</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M35" s="7">
         <v>196</v>
@@ -3993,13 +3999,13 @@
         <v>207659</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4020,13 @@
         <v>167146</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="H36" s="7">
         <v>213</v>
@@ -4029,13 +4035,13 @@
         <v>248569</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="M36" s="7">
         <v>394</v>
@@ -4044,19 +4050,19 @@
         <v>415716</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>130</v>
@@ -4065,13 +4071,13 @@
         <v>122917</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H37" s="7">
         <v>121</v>
@@ -4080,13 +4086,13 @@
         <v>144676</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M37" s="7">
         <v>251</v>
@@ -4095,19 +4101,19 @@
         <v>267593</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>164</v>
@@ -4116,13 +4122,13 @@
         <v>157799</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H38" s="7">
         <v>187</v>
@@ -4131,13 +4137,13 @@
         <v>225547</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M38" s="7">
         <v>351</v>
@@ -4146,13 +4152,13 @@
         <v>383346</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4173,13 @@
         <v>563576</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>629</v>
@@ -4182,13 +4188,13 @@
         <v>747062</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>1226</v>
@@ -4197,13 +4203,13 @@
         <v>1310639</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4226,13 @@
         <v>312194</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H40" s="7">
         <v>244</v>
@@ -4235,13 +4241,13 @@
         <v>252159</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M40" s="7">
         <v>540</v>
@@ -4250,13 +4256,13 @@
         <v>564353</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4277,13 @@
         <v>725106</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H41" s="7">
         <v>743</v>
@@ -4286,13 +4292,13 @@
         <v>779799</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M41" s="7">
         <v>1434</v>
@@ -4301,13 +4307,13 @@
         <v>1504905</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,28 +4328,28 @@
         <v>767665</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H42" s="7">
         <v>854</v>
       </c>
       <c r="I42" s="7">
-        <v>915148</v>
+        <v>915147</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M42" s="7">
         <v>1594</v>
@@ -4352,19 +4358,19 @@
         <v>1682812</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>348</v>
@@ -4373,13 +4379,13 @@
         <v>364084</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="H43" s="7">
         <v>394</v>
@@ -4388,13 +4394,13 @@
         <v>429020</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="M43" s="7">
         <v>742</v>
@@ -4403,19 +4409,19 @@
         <v>793104</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>450</v>
@@ -4424,13 +4430,13 @@
         <v>469833</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H44" s="7">
         <v>575</v>
@@ -4439,13 +4445,13 @@
         <v>630977</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="M44" s="7">
         <v>1025</v>
@@ -4454,13 +4460,13 @@
         <v>1100810</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,28 +4481,28 @@
         <v>2638882</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>2810</v>
       </c>
       <c r="I45" s="7">
-        <v>3007103</v>
+        <v>3007102</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>5335</v>
@@ -4505,18 +4511,18 @@
         <v>5645984</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4538,7 +4544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D516225A-BF8B-4682-B410-5094B8ADBB53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8784DF-5846-4E1B-AFF6-76E5842D3152}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4555,7 +4561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4662,13 +4668,13 @@
         <v>29590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4677,13 +4683,13 @@
         <v>30313</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -4692,13 +4698,13 @@
         <v>59903</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4719,13 @@
         <v>53153</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -4728,13 +4734,13 @@
         <v>43692</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -4743,13 +4749,13 @@
         <v>96846</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4770,13 @@
         <v>48458</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -4779,13 +4785,13 @@
         <v>51384</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="M6" s="7">
         <v>49</v>
@@ -4794,19 +4800,19 @@
         <v>99842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -4815,13 +4821,13 @@
         <v>20122</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4830,13 +4836,13 @@
         <v>23374</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4845,19 +4851,19 @@
         <v>43496</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -4866,13 +4872,13 @@
         <v>9012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -4881,13 +4887,13 @@
         <v>52113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -4896,13 +4902,13 @@
         <v>61125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4923,13 @@
         <v>160335</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>122</v>
@@ -4932,13 +4938,13 @@
         <v>200877</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>199</v>
@@ -4947,18 +4953,18 @@
         <v>361212</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4970,13 +4976,13 @@
         <v>32132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4985,13 +4991,13 @@
         <v>41475</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -5000,13 +5006,13 @@
         <v>73606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5027,13 @@
         <v>104382</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
@@ -5036,13 +5042,13 @@
         <v>118041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>186</v>
@@ -5051,13 +5057,13 @@
         <v>222423</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5078,13 @@
         <v>79133</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H12" s="7">
         <v>97</v>
@@ -5087,13 +5093,13 @@
         <v>93965</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>152</v>
@@ -5102,19 +5108,19 @@
         <v>173098</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>20</v>
@@ -5123,13 +5129,13 @@
         <v>27903</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -5138,13 +5144,13 @@
         <v>45954</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -5153,19 +5159,19 @@
         <v>73857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>17</v>
@@ -5174,13 +5180,13 @@
         <v>24954</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -5189,13 +5195,13 @@
         <v>62985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>78</v>
@@ -5204,13 +5210,13 @@
         <v>87939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5231,13 @@
         <v>268505</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>350</v>
@@ -5240,13 +5246,13 @@
         <v>362419</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>544</v>
@@ -5255,18 +5261,18 @@
         <v>630924</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5278,13 +5284,13 @@
         <v>46963</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -5293,13 +5299,13 @@
         <v>48758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -5308,13 +5314,13 @@
         <v>95721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5335,13 @@
         <v>127865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -5344,13 +5350,13 @@
         <v>147983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>334</v>
@@ -5359,13 +5365,13 @@
         <v>275848</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5386,13 @@
         <v>129925</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
@@ -5395,13 +5401,13 @@
         <v>138155</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>422</v>
+        <v>216</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M18" s="7">
         <v>334</v>
@@ -5410,19 +5416,19 @@
         <v>268080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>58</v>
@@ -5431,13 +5437,13 @@
         <v>59633</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -5446,13 +5452,13 @@
         <v>59208</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -5461,19 +5467,19 @@
         <v>118841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>55</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>57</v>
@@ -5482,13 +5488,13 @@
         <v>58085</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -5497,13 +5503,13 @@
         <v>93523</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -5512,13 +5518,13 @@
         <v>151608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5539,13 @@
         <v>422471</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>720</v>
@@ -5548,13 +5554,13 @@
         <v>487628</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1133</v>
@@ -5563,18 +5569,18 @@
         <v>910099</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5586,13 +5592,13 @@
         <v>41309</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>443</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -5601,13 +5607,13 @@
         <v>46499</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>111</v>
@@ -5616,13 +5622,13 @@
         <v>87808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5643,13 @@
         <v>152936</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>451</v>
+        <v>336</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H23" s="7">
         <v>274</v>
@@ -5652,13 +5658,13 @@
         <v>182005</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>429</v>
@@ -5667,13 +5673,13 @@
         <v>334941</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5694,13 @@
         <v>183765</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H24" s="7">
         <v>317</v>
@@ -5703,13 +5709,13 @@
         <v>209319</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>463</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="M24" s="7">
         <v>501</v>
@@ -5718,19 +5724,19 @@
         <v>393084</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>466</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>216</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>73</v>
@@ -5739,13 +5745,13 @@
         <v>73775</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>471</v>
       </c>
       <c r="H25" s="7">
         <v>154</v>
@@ -5754,13 +5760,13 @@
         <v>92614</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -5769,19 +5775,19 @@
         <v>166389</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>475</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>117</v>
@@ -5790,13 +5796,13 @@
         <v>116709</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H26" s="7">
         <v>220</v>
@@ -5805,13 +5811,13 @@
         <v>138097</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>481</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>482</v>
       </c>
       <c r="M26" s="7">
         <v>337</v>
@@ -5820,13 +5826,13 @@
         <v>254806</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>483</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>475</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5847,13 @@
         <v>568494</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>1033</v>
@@ -5856,13 +5862,13 @@
         <v>668534</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1605</v>
@@ -5871,18 +5877,18 @@
         <v>1237028</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5894,13 +5900,13 @@
         <v>47441</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>478</v>
+        <v>372</v>
       </c>
       <c r="H28" s="7">
         <v>54</v>
@@ -5909,13 +5915,13 @@
         <v>33549</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -5924,13 +5930,13 @@
         <v>80989</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>43</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5951,13 @@
         <v>132916</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>485</v>
+        <v>232</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -5960,13 +5966,13 @@
         <v>113079</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M29" s="7">
         <v>324</v>
@@ -5975,13 +5981,13 @@
         <v>245995</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +6002,13 @@
         <v>150520</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H30" s="7">
         <v>292</v>
@@ -6011,13 +6017,13 @@
         <v>173705</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="M30" s="7">
         <v>470</v>
@@ -6026,19 +6032,19 @@
         <v>324226</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>167</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>119</v>
@@ -6047,13 +6053,13 @@
         <v>105035</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>501</v>
+        <v>59</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H31" s="7">
         <v>184</v>
@@ -6062,13 +6068,13 @@
         <v>106191</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="M31" s="7">
         <v>303</v>
@@ -6077,19 +6083,19 @@
         <v>211226</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>122</v>
@@ -6098,13 +6104,13 @@
         <v>110008</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="H32" s="7">
         <v>225</v>
@@ -6113,13 +6119,13 @@
         <v>130260</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="M32" s="7">
         <v>347</v>
@@ -6128,13 +6134,13 @@
         <v>240269</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6155,13 @@
         <v>545920</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>943</v>
@@ -6164,13 +6170,13 @@
         <v>556784</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>1546</v>
@@ -6179,18 +6185,18 @@
         <v>1102704</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6202,13 +6208,13 @@
         <v>25065</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -6217,13 +6223,13 @@
         <v>32382</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -6232,13 +6238,13 @@
         <v>57447</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6259,13 @@
         <v>115337</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>529</v>
+        <v>442</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>101</v>
+        <v>537</v>
       </c>
       <c r="H35" s="7">
         <v>281</v>
@@ -6268,13 +6274,13 @@
         <v>152724</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="M35" s="7">
         <v>440</v>
@@ -6283,13 +6289,13 @@
         <v>268061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6310,13 @@
         <v>193905</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>537</v>
+        <v>222</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="H36" s="7">
         <v>482</v>
@@ -6319,13 +6325,13 @@
         <v>375880</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="M36" s="7">
         <v>765</v>
@@ -6334,19 +6340,19 @@
         <v>569786</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>289</v>
+        <v>549</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>243</v>
@@ -6355,13 +6361,13 @@
         <v>160002</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="H37" s="7">
         <v>360</v>
@@ -6370,13 +6376,13 @@
         <v>188312</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>547</v>
+        <v>179</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="M37" s="7">
         <v>603</v>
@@ -6385,19 +6391,19 @@
         <v>348315</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>271</v>
@@ -6406,13 +6412,13 @@
         <v>175620</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="H38" s="7">
         <v>454</v>
@@ -6421,13 +6427,13 @@
         <v>233510</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="M38" s="7">
         <v>725</v>
@@ -6436,13 +6442,13 @@
         <v>409130</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6463,13 @@
         <v>669930</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>1633</v>
@@ -6472,13 +6478,13 @@
         <v>982809</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>2623</v>
@@ -6487,13 +6493,13 @@
         <v>1652739</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6516,13 @@
         <v>222500</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>561</v>
+        <v>199</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H40" s="7">
         <v>304</v>
@@ -6525,13 +6531,13 @@
         <v>232976</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>565</v>
+        <v>373</v>
       </c>
       <c r="M40" s="7">
         <v>518</v>
@@ -6540,13 +6546,13 @@
         <v>455475</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6567,13 @@
         <v>686590</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H41" s="7">
         <v>1090</v>
@@ -6576,13 +6582,13 @@
         <v>757524</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>248</v>
+        <v>576</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>573</v>
+        <v>234</v>
       </c>
       <c r="M41" s="7">
         <v>1770</v>
@@ -6591,13 +6597,13 @@
         <v>1444115</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>575</v>
+        <v>275</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,13 +6618,13 @@
         <v>785706</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>577</v>
+        <v>75</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H42" s="7">
         <v>1426</v>
@@ -6627,10 +6633,10 @@
         <v>1042409</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>580</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>581</v>
@@ -6654,7 +6660,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>520</v>
@@ -6681,10 +6687,10 @@
         <v>588</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>401</v>
+        <v>589</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>181</v>
+        <v>590</v>
       </c>
       <c r="M43" s="7">
         <v>1367</v>
@@ -6693,19 +6699,19 @@
         <v>962124</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>400</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>590</v>
@@ -6714,13 +6720,13 @@
         <v>494388</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H44" s="7">
         <v>1134</v>
@@ -6729,13 +6735,13 @@
         <v>710489</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>596</v>
+        <v>336</v>
       </c>
       <c r="M44" s="7">
         <v>1724</v>
@@ -6744,13 +6750,13 @@
         <v>1204877</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6771,13 @@
         <v>2635656</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>4801</v>
@@ -6780,13 +6786,13 @@
         <v>3259050</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>7650</v>
@@ -6795,18 +6801,18 @@
         <v>5894706</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{253CC21A-A22B-4D37-8900-652B403D34A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B551FD1-CC00-4A7F-AA96-39D459B03A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D926821-B225-40A2-9EB0-300432230248}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2062F06D-6507-480B-AA2D-F7AB0428A440}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="602">
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2015 (Tasa respuesta: 81,21%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="600">
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2016 (Tasa respuesta: 81,21%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,16 +75,16 @@
     <t>14,96%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>6,04%</t>
+    <t>6,37%</t>
   </si>
   <si>
     <t>13,52%</t>
@@ -93,10 +93,10 @@
     <t>12,0%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -105,1683 +105,1680 @@
     <t>38,7%</t>
   </si>
   <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>37,41%</t>
   </si>
   <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
     <t>33,14%</t>
   </si>
   <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>31,99%</t>
   </si>
   <si>
     <t>29,15%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
     <t>40,14%</t>
   </si>
   <si>
@@ -1831,9 +1828,6 @@
   </si>
   <si>
     <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
   </si>
   <si>
     <t>20,44%</t>
@@ -2254,7 +2248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1658321-9556-4E6C-BCC7-3CB9D7E9368A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F71AB02-8BFA-4345-A12E-4692B634A3C9}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2896,7 +2890,7 @@
         <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
         <v>72</v>
@@ -2905,13 +2899,13 @@
         <v>71412</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>108</v>
@@ -2920,13 +2914,13 @@
         <v>108384</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,7 +2976,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2994,13 +2988,13 @@
         <v>71870</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -3009,13 +3003,13 @@
         <v>77629</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -3024,13 +3018,13 @@
         <v>149498</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3039,13 @@
         <v>166667</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -3060,13 +3054,13 @@
         <v>157667</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
@@ -3075,13 +3069,13 @@
         <v>324334</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3090,13 @@
         <v>161055</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>154</v>
@@ -3111,13 +3105,13 @@
         <v>154492</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>308</v>
@@ -3126,13 +3120,13 @@
         <v>315547</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3141,13 @@
         <v>55074</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -3162,13 +3156,13 @@
         <v>61727</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -3177,13 +3171,13 @@
         <v>116802</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3192,13 @@
         <v>62934</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -3213,13 +3207,13 @@
         <v>91767</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>152</v>
@@ -3228,13 +3222,13 @@
         <v>154700</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,7 +3284,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3302,13 +3296,13 @@
         <v>73878</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -3317,13 +3311,13 @@
         <v>60922</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -3332,13 +3326,13 @@
         <v>134800</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3347,13 @@
         <v>143387</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H23" s="7">
         <v>160</v>
@@ -3368,13 +3362,13 @@
         <v>172891</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>290</v>
@@ -3383,13 +3377,13 @@
         <v>316278</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3398,13 @@
         <v>154165</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>151</v>
@@ -3419,13 +3413,13 @@
         <v>165067</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>290</v>
@@ -3434,13 +3428,13 @@
         <v>319232</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3449,13 @@
         <v>67937</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -3470,13 +3464,13 @@
         <v>78822</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -3485,13 +3479,13 @@
         <v>146759</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3500,13 @@
         <v>93197</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3521,13 +3515,13 @@
         <v>90105</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>167</v>
@@ -3536,13 +3530,13 @@
         <v>183302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,7 +3592,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3610,13 +3604,13 @@
         <v>42541</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -3625,13 +3619,13 @@
         <v>24961</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>59</v>
@@ -3640,13 +3634,13 @@
         <v>67502</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3655,13 @@
         <v>101856</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>92</v>
@@ -3676,13 +3670,13 @@
         <v>106229</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>182</v>
@@ -3691,13 +3685,13 @@
         <v>208085</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3706,13 @@
         <v>126610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>117</v>
@@ -3727,13 +3721,13 @@
         <v>134696</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>231</v>
@@ -3742,13 +3736,13 @@
         <v>261306</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,10 +3760,10 @@
         <v>54</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -3778,13 +3772,13 @@
         <v>75339</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -3793,13 +3787,13 @@
         <v>147746</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3808,13 @@
         <v>89847</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>98</v>
@@ -3829,13 +3823,13 @@
         <v>111362</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>179</v>
@@ -3844,13 +3838,13 @@
         <v>201209</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,7 +3900,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3918,13 +3912,13 @@
         <v>19495</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -3933,13 +3927,13 @@
         <v>16829</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>34</v>
@@ -3948,13 +3942,13 @@
         <v>36325</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3963,13 @@
         <v>96218</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>94</v>
@@ -3984,13 +3978,13 @@
         <v>111441</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>196</v>
@@ -3999,13 +3993,13 @@
         <v>207659</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4014,13 @@
         <v>167146</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>213</v>
@@ -4035,13 +4029,13 @@
         <v>248569</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>394</v>
@@ -4050,13 +4044,13 @@
         <v>415716</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4065,13 @@
         <v>122917</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>121</v>
@@ -4086,13 +4080,13 @@
         <v>144676</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>251</v>
@@ -4101,13 +4095,13 @@
         <v>267593</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4116,13 @@
         <v>157799</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>187</v>
@@ -4137,13 +4131,13 @@
         <v>225547</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>351</v>
@@ -4152,13 +4146,13 @@
         <v>383346</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4220,13 @@
         <v>312194</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>244</v>
@@ -4241,13 +4235,13 @@
         <v>252159</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>540</v>
@@ -4256,13 +4250,13 @@
         <v>564353</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4271,13 @@
         <v>725106</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H41" s="7">
         <v>743</v>
@@ -4292,13 +4286,13 @@
         <v>779799</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>1434</v>
@@ -4307,13 +4301,13 @@
         <v>1504905</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4322,13 @@
         <v>767665</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H42" s="7">
         <v>854</v>
@@ -4343,13 +4337,13 @@
         <v>915147</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="M42" s="7">
         <v>1594</v>
@@ -4358,13 +4352,13 @@
         <v>1682812</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4373,13 @@
         <v>364084</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H43" s="7">
         <v>394</v>
@@ -4394,13 +4388,13 @@
         <v>429020</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M43" s="7">
         <v>742</v>
@@ -4409,13 +4403,13 @@
         <v>793104</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4424,13 @@
         <v>469833</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H44" s="7">
         <v>575</v>
@@ -4445,13 +4439,13 @@
         <v>630977</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M44" s="7">
         <v>1025</v>
@@ -4460,13 +4454,13 @@
         <v>1100810</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,7 +4516,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4544,7 +4538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8784DF-5846-4E1B-AFF6-76E5842D3152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5901E0D-905A-48C0-A5E7-72C13B080C0B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4561,7 +4555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4668,13 +4662,13 @@
         <v>29590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4683,13 +4677,13 @@
         <v>30313</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -4698,13 +4692,13 @@
         <v>59903</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4713,13 @@
         <v>53153</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -4734,13 +4728,13 @@
         <v>43692</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -4749,13 +4743,13 @@
         <v>96846</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4764,13 @@
         <v>48458</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -4785,13 +4779,13 @@
         <v>51384</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M6" s="7">
         <v>49</v>
@@ -4800,13 +4794,13 @@
         <v>99842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4815,13 @@
         <v>20122</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4836,13 +4830,13 @@
         <v>23374</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4851,13 +4845,13 @@
         <v>43496</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4866,13 @@
         <v>9012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>58</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -4887,13 +4881,13 @@
         <v>52113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -4902,13 +4896,13 @@
         <v>61125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4970,13 @@
         <v>32132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4991,13 +4985,13 @@
         <v>41475</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -5006,10 +5000,10 @@
         <v>73606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>68</v>
@@ -5027,13 +5021,13 @@
         <v>104382</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
@@ -5042,13 +5036,13 @@
         <v>118041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>186</v>
@@ -5057,13 +5051,13 @@
         <v>222423</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5072,13 @@
         <v>79133</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>97</v>
@@ -5093,13 +5087,13 @@
         <v>93965</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>152</v>
@@ -5108,13 +5102,13 @@
         <v>173098</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5123,13 @@
         <v>27903</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -5144,13 +5138,13 @@
         <v>45954</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -5159,13 +5153,13 @@
         <v>73857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5174,13 @@
         <v>24954</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -5195,13 +5189,13 @@
         <v>62985</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>78</v>
@@ -5210,13 +5204,13 @@
         <v>87939</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,7 +5266,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5284,13 +5278,13 @@
         <v>46963</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -5299,13 +5293,13 @@
         <v>48758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -5314,13 +5308,13 @@
         <v>95721</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5329,13 @@
         <v>127865</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -5350,13 +5344,13 @@
         <v>147983</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>334</v>
@@ -5365,13 +5359,13 @@
         <v>275848</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5380,13 @@
         <v>129925</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
@@ -5401,13 +5395,13 @@
         <v>138155</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M18" s="7">
         <v>334</v>
@@ -5416,10 +5410,10 @@
         <v>268080</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>429</v>
@@ -5437,13 +5431,13 @@
         <v>59633</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>189</v>
+        <v>430</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -5452,13 +5446,13 @@
         <v>59208</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -5467,13 +5461,13 @@
         <v>118841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5482,13 @@
         <v>58085</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -5503,13 +5497,13 @@
         <v>93523</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -5518,13 +5512,13 @@
         <v>151608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,7 +5574,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5592,13 +5586,13 @@
         <v>41309</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>206</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -5607,13 +5601,13 @@
         <v>46499</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>111</v>
@@ -5622,13 +5616,13 @@
         <v>87808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5637,13 @@
         <v>152936</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H23" s="7">
         <v>274</v>
@@ -5658,13 +5652,13 @@
         <v>182005</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M23" s="7">
         <v>429</v>
@@ -5673,13 +5667,13 @@
         <v>334941</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5688,13 @@
         <v>183765</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>460</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H24" s="7">
         <v>317</v>
@@ -5709,13 +5703,13 @@
         <v>209319</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M24" s="7">
         <v>501</v>
@@ -5724,13 +5718,13 @@
         <v>393084</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5739,13 @@
         <v>73775</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H25" s="7">
         <v>154</v>
@@ -5760,13 +5754,13 @@
         <v>92614</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -5775,10 +5769,10 @@
         <v>166389</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>475</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>476</v>
@@ -5826,13 +5820,13 @@
         <v>254806</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,7 +5882,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5906,7 +5900,7 @@
         <v>486</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H28" s="7">
         <v>54</v>
@@ -5954,7 +5948,7 @@
         <v>493</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>494</v>
@@ -5984,10 +5978,10 @@
         <v>498</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5996,13 @@
         <v>150520</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H30" s="7">
         <v>292</v>
@@ -6017,13 +6011,13 @@
         <v>173705</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M30" s="7">
         <v>470</v>
@@ -6032,13 +6026,13 @@
         <v>324226</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,7 +6047,7 @@
         <v>105035</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>59</v>
+        <v>509</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>510</v>
@@ -6122,10 +6116,10 @@
         <v>521</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M32" s="7">
         <v>347</v>
@@ -6134,13 +6128,13 @@
         <v>240269</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6190,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6208,13 +6202,13 @@
         <v>25065</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -6223,13 +6217,13 @@
         <v>32382</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -6238,13 +6232,13 @@
         <v>57447</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6253,13 @@
         <v>115337</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>537</v>
+        <v>224</v>
       </c>
       <c r="H35" s="7">
         <v>281</v>
@@ -6274,13 +6268,13 @@
         <v>152724</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>538</v>
+        <v>185</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M35" s="7">
         <v>440</v>
@@ -6289,13 +6283,13 @@
         <v>268061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>542</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6304,13 @@
         <v>193905</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H36" s="7">
         <v>482</v>
@@ -6325,13 +6319,13 @@
         <v>375880</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M36" s="7">
         <v>765</v>
@@ -6340,13 +6334,13 @@
         <v>569786</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6355,13 @@
         <v>160002</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H37" s="7">
         <v>360</v>
@@ -6379,7 +6373,7 @@
         <v>515</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>498</v>
@@ -6391,13 +6385,13 @@
         <v>348315</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6406,13 @@
         <v>175620</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H38" s="7">
         <v>454</v>
@@ -6427,13 +6421,13 @@
         <v>233510</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M38" s="7">
         <v>725</v>
@@ -6442,13 +6436,13 @@
         <v>409130</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>564</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6510,13 @@
         <v>222500</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>199</v>
+        <v>561</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H40" s="7">
         <v>304</v>
@@ -6531,13 +6525,13 @@
         <v>232976</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M40" s="7">
         <v>518</v>
@@ -6546,13 +6540,13 @@
         <v>455475</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6561,13 @@
         <v>686590</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H41" s="7">
         <v>1090</v>
@@ -6582,13 +6576,13 @@
         <v>757524</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>234</v>
+        <v>573</v>
       </c>
       <c r="M41" s="7">
         <v>1770</v>
@@ -6597,13 +6591,13 @@
         <v>1444115</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>275</v>
+        <v>575</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6612,13 @@
         <v>785706</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>75</v>
+        <v>577</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>579</v>
+        <v>168</v>
       </c>
       <c r="H42" s="7">
         <v>1426</v>
@@ -6633,13 +6627,13 @@
         <v>1042409</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="M42" s="7">
         <v>2271</v>
@@ -6648,13 +6642,13 @@
         <v>1828115</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,13 +6663,13 @@
         <v>446471</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="H43" s="7">
         <v>847</v>
@@ -6684,13 +6678,13 @@
         <v>515653</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="M43" s="7">
         <v>1367</v>
@@ -6699,13 +6693,13 @@
         <v>962124</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,13 +6714,13 @@
         <v>494388</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="H44" s="7">
         <v>1134</v>
@@ -6735,13 +6729,13 @@
         <v>710489</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>598</v>
+        <v>102</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M44" s="7">
         <v>1724</v>
@@ -6750,13 +6744,13 @@
         <v>1204877</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,7 +6806,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B551FD1-CC00-4A7F-AA96-39D459B03A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87943B0F-1635-43AD-A39B-DF2E5500E379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2062F06D-6507-480B-AA2D-F7AB0428A440}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D977845D-73DB-43D7-A041-C17EEBE06E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>14,96%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -105,1738 +105,1738 @@
     <t>38,7%</t>
   </si>
   <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>23,19%</t>
+    <t>23,61%</t>
   </si>
   <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>6,09%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>26,05%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
+    <t>24,87%</t>
   </si>
   <si>
     <t>24,5%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
+    <t>31,6%</t>
+  </si>
+  <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
   <si>
     <t>31,01%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
   </si>
   <si>
     <t>15,82%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>15,08%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F71AB02-8BFA-4345-A12E-4692B634A3C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DED5563-5EA3-4ACD-8D8B-0D35F1C4530E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2510,13 +2510,13 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>18</v>
@@ -2525,13 +2525,13 @@
         <v>18840</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -2540,13 +2540,13 @@
         <v>21654</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -2555,19 +2555,19 @@
         <v>40494</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>27</v>
@@ -2576,13 +2576,13 @@
         <v>29084</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -2591,13 +2591,13 @@
         <v>40784</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -2606,13 +2606,13 @@
         <v>69868</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2627,13 @@
         <v>215030</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>248</v>
@@ -2642,13 +2642,13 @@
         <v>244070</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>450</v>
@@ -2657,18 +2657,18 @@
         <v>459100</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2680,13 +2680,13 @@
         <v>72233</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2695,13 +2695,13 @@
         <v>48919</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -2710,13 +2710,13 @@
         <v>121152</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2731,13 @@
         <v>133767</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>146</v>
@@ -2746,13 +2746,13 @@
         <v>143051</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
@@ -2761,13 +2761,13 @@
         <v>276818</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2782,13 @@
         <v>106971</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -2797,13 +2797,13 @@
         <v>142110</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>252</v>
@@ -2812,19 +2812,19 @@
         <v>249081</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>26</v>
@@ -2833,13 +2833,13 @@
         <v>26907</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -2848,13 +2848,13 @@
         <v>46803</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -2863,19 +2863,19 @@
         <v>73710</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>36</v>
@@ -2884,13 +2884,13 @@
         <v>36972</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H14" s="7">
         <v>72</v>
@@ -2899,13 +2899,13 @@
         <v>71412</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>108</v>
@@ -2914,10 +2914,10 @@
         <v>108384</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>104</v>
@@ -2935,13 +2935,13 @@
         <v>376850</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>464</v>
@@ -2950,13 +2950,13 @@
         <v>452295</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>829</v>
@@ -2965,13 +2965,13 @@
         <v>829145</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,7 +3132,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>50</v>
@@ -3159,10 +3159,10 @@
         <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -3171,19 +3171,19 @@
         <v>116802</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>59</v>
@@ -3192,13 +3192,13 @@
         <v>62934</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -3207,13 +3207,13 @@
         <v>91767</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>152</v>
@@ -3222,13 +3222,13 @@
         <v>154700</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3243,13 @@
         <v>517600</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>547</v>
@@ -3258,13 +3258,13 @@
         <v>543281</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1040</v>
@@ -3273,18 +3273,18 @@
         <v>1060881</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3296,13 +3296,13 @@
         <v>73878</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -3311,13 +3311,13 @@
         <v>60922</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -3326,13 +3326,13 @@
         <v>134800</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3347,13 @@
         <v>143387</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>160</v>
@@ -3362,13 +3362,13 @@
         <v>172891</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>290</v>
@@ -3377,13 +3377,13 @@
         <v>316278</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3398,13 @@
         <v>154165</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>151</v>
@@ -3416,10 +3416,10 @@
         <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>290</v>
@@ -3428,19 +3428,19 @@
         <v>319232</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>61</v>
@@ -3449,13 +3449,13 @@
         <v>67937</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -3464,13 +3464,13 @@
         <v>78822</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -3479,19 +3479,19 @@
         <v>146759</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>83</v>
@@ -3500,13 +3500,13 @@
         <v>93197</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3515,10 +3515,10 @@
         <v>90105</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>189</v>
@@ -3533,10 +3533,10 @@
         <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3551,13 @@
         <v>532564</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>527</v>
@@ -3566,13 +3566,13 @@
         <v>567807</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1009</v>
@@ -3581,18 +3581,18 @@
         <v>1100372</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3604,13 +3604,13 @@
         <v>42541</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -3619,13 +3619,13 @@
         <v>24961</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>59</v>
@@ -3634,13 +3634,13 @@
         <v>67502</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3655,13 @@
         <v>101856</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>92</v>
@@ -3670,13 +3670,13 @@
         <v>106229</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>182</v>
@@ -3685,13 +3685,13 @@
         <v>208085</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3706,13 @@
         <v>126610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>117</v>
@@ -3721,13 +3721,13 @@
         <v>134696</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>231</v>
@@ -3736,19 +3736,19 @@
         <v>261306</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>63</v>
@@ -3757,13 +3757,13 @@
         <v>72407</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -3772,13 +3772,13 @@
         <v>75339</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -3787,19 +3787,19 @@
         <v>147746</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>81</v>
@@ -3808,13 +3808,13 @@
         <v>89847</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>98</v>
@@ -3823,13 +3823,13 @@
         <v>111362</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>179</v>
@@ -3838,13 +3838,13 @@
         <v>201209</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3859,13 @@
         <v>433261</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>395</v>
@@ -3874,13 +3874,13 @@
         <v>452587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>781</v>
@@ -3889,18 +3889,18 @@
         <v>885848</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3912,13 +3912,13 @@
         <v>19495</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -3927,13 +3927,13 @@
         <v>16829</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>34</v>
@@ -3942,13 +3942,13 @@
         <v>36325</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3963,13 @@
         <v>96218</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>94</v>
@@ -3978,13 +3978,13 @@
         <v>111441</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>196</v>
@@ -3993,10 +3993,10 @@
         <v>207659</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>251</v>
@@ -4056,7 +4056,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>130</v>
@@ -4095,19 +4095,19 @@
         <v>267593</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>164</v>
@@ -4116,13 +4116,13 @@
         <v>157799</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>187</v>
@@ -4131,13 +4131,13 @@
         <v>225547</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>351</v>
@@ -4146,13 +4146,13 @@
         <v>383346</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4167,13 @@
         <v>563576</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>629</v>
@@ -4182,13 +4182,13 @@
         <v>747062</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>1226</v>
@@ -4197,13 +4197,13 @@
         <v>1310639</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4220,13 @@
         <v>312194</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>244</v>
@@ -4235,13 +4235,13 @@
         <v>252159</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>540</v>
@@ -4250,13 +4250,13 @@
         <v>564353</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4271,13 @@
         <v>725106</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H41" s="7">
         <v>743</v>
@@ -4286,13 +4286,13 @@
         <v>779799</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>1434</v>
@@ -4301,13 +4301,13 @@
         <v>1504905</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,28 +4322,28 @@
         <v>767665</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H42" s="7">
         <v>854</v>
       </c>
       <c r="I42" s="7">
-        <v>915147</v>
+        <v>915148</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M42" s="7">
         <v>1594</v>
@@ -4364,7 +4364,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>348</v>
@@ -4373,13 +4373,13 @@
         <v>364084</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H43" s="7">
         <v>394</v>
@@ -4388,13 +4388,13 @@
         <v>429020</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>310</v>
+        <v>104</v>
       </c>
       <c r="M43" s="7">
         <v>742</v>
@@ -4403,19 +4403,19 @@
         <v>793104</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>450</v>
@@ -4424,13 +4424,13 @@
         <v>469833</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H44" s="7">
         <v>575</v>
@@ -4439,13 +4439,13 @@
         <v>630977</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M44" s="7">
         <v>1025</v>
@@ -4454,13 +4454,13 @@
         <v>1100810</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,28 +4475,28 @@
         <v>2638882</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>2810</v>
       </c>
       <c r="I45" s="7">
-        <v>3007102</v>
+        <v>3007103</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>5335</v>
@@ -4505,18 +4505,18 @@
         <v>5645984</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4538,7 +4538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5901E0D-905A-48C0-A5E7-72C13B080C0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2A34A-9FCB-4E1A-B0BF-D35CA369C138}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4555,7 +4555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4662,13 +4662,13 @@
         <v>29590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4677,13 +4677,13 @@
         <v>30313</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -4692,13 +4692,13 @@
         <v>59903</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4713,13 @@
         <v>53153</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -4728,13 +4728,13 @@
         <v>43692</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -4743,13 +4743,13 @@
         <v>96846</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4764,13 @@
         <v>48458</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -4779,13 +4779,13 @@
         <v>51384</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M6" s="7">
         <v>49</v>
@@ -4794,19 +4794,19 @@
         <v>99842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -4815,13 +4815,13 @@
         <v>20122</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4830,13 +4830,13 @@
         <v>23374</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4845,19 +4845,19 @@
         <v>43496</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -4866,13 +4866,13 @@
         <v>9012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>58</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -4881,13 +4881,13 @@
         <v>52113</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -4896,13 +4896,13 @@
         <v>61125</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4917,13 @@
         <v>160335</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>122</v>
@@ -4932,13 +4932,13 @@
         <v>200877</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>199</v>
@@ -4947,18 +4947,18 @@
         <v>361212</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4970,13 +4970,13 @@
         <v>32132</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4985,13 +4985,13 @@
         <v>41475</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -5000,13 +5000,13 @@
         <v>73606</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5021,13 @@
         <v>104382</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
@@ -5036,10 +5036,10 @@
         <v>118041</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>377</v>
@@ -5087,7 +5087,7 @@
         <v>93965</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>384</v>
@@ -5114,7 +5114,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>20</v>
@@ -5141,10 +5141,10 @@
         <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -5165,7 +5165,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>17</v>
@@ -5210,7 +5210,7 @@
         <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5225,13 @@
         <v>268505</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>350</v>
@@ -5240,13 +5240,13 @@
         <v>362419</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>544</v>
@@ -5255,13 +5255,13 @@
         <v>630924</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5278,13 @@
         <v>46963</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -5293,7 +5293,7 @@
         <v>48758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>408</v>
@@ -5311,10 +5311,10 @@
         <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5329,13 @@
         <v>127865</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -5344,13 +5344,13 @@
         <v>147983</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>334</v>
@@ -5359,13 +5359,13 @@
         <v>275848</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5380,13 @@
         <v>129925</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>423</v>
+        <v>342</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
@@ -5395,13 +5395,13 @@
         <v>138155</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M18" s="7">
         <v>334</v>
@@ -5410,19 +5410,19 @@
         <v>268080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>58</v>
@@ -5431,13 +5431,13 @@
         <v>59633</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -5446,13 +5446,13 @@
         <v>59208</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -5461,19 +5461,19 @@
         <v>118841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>57</v>
@@ -5482,13 +5482,13 @@
         <v>58085</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>438</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -5497,13 +5497,13 @@
         <v>93523</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -5515,10 +5515,10 @@
         <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5533,13 @@
         <v>422471</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>720</v>
@@ -5548,13 +5548,13 @@
         <v>487628</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1133</v>
@@ -5563,18 +5563,18 @@
         <v>910099</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5586,13 +5586,13 @@
         <v>41309</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -5601,13 +5601,13 @@
         <v>46499</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>111</v>
@@ -5616,13 +5616,13 @@
         <v>87808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5637,13 @@
         <v>152936</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>451</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>274</v>
@@ -5652,13 +5652,13 @@
         <v>182005</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>429</v>
@@ -5667,13 +5667,13 @@
         <v>334941</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5688,13 @@
         <v>183765</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>459</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H24" s="7">
         <v>317</v>
@@ -5703,13 +5703,13 @@
         <v>209319</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>466</v>
+        <v>378</v>
       </c>
       <c r="M24" s="7">
         <v>501</v>
@@ -5718,19 +5718,19 @@
         <v>393084</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>467</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>469</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>73</v>
@@ -5739,13 +5739,13 @@
         <v>73775</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>472</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>154</v>
@@ -5754,13 +5754,13 @@
         <v>92614</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -5769,19 +5769,19 @@
         <v>166389</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>394</v>
+        <v>278</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>117</v>
@@ -5790,13 +5790,13 @@
         <v>116709</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H26" s="7">
         <v>220</v>
@@ -5805,13 +5805,13 @@
         <v>138097</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>481</v>
+        <v>267</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>482</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
         <v>337</v>
@@ -5820,13 +5820,13 @@
         <v>254806</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5841,13 @@
         <v>568494</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>1033</v>
@@ -5856,13 +5856,13 @@
         <v>668534</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1605</v>
@@ -5871,18 +5871,18 @@
         <v>1237028</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5894,13 +5894,13 @@
         <v>47441</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>368</v>
+        <v>478</v>
       </c>
       <c r="H28" s="7">
         <v>54</v>
@@ -5909,13 +5909,13 @@
         <v>33549</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -5924,13 +5924,13 @@
         <v>80989</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>492</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5945,13 @@
         <v>132916</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>485</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -5960,13 +5960,13 @@
         <v>113079</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M29" s="7">
         <v>324</v>
@@ -5975,13 +5975,13 @@
         <v>245995</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>491</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +5996,13 @@
         <v>150520</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H30" s="7">
         <v>292</v>
@@ -6011,13 +6011,13 @@
         <v>173705</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M30" s="7">
         <v>470</v>
@@ -6026,19 +6026,19 @@
         <v>324226</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>508</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>119</v>
@@ -6047,13 +6047,13 @@
         <v>105035</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="H31" s="7">
         <v>184</v>
@@ -6062,13 +6062,13 @@
         <v>106191</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="M31" s="7">
         <v>303</v>
@@ -6077,19 +6077,19 @@
         <v>211226</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>122</v>
@@ -6098,13 +6098,13 @@
         <v>110008</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="H32" s="7">
         <v>225</v>
@@ -6113,13 +6113,13 @@
         <v>130260</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>514</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M32" s="7">
         <v>347</v>
@@ -6128,13 +6128,13 @@
         <v>240269</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6149,13 @@
         <v>545920</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>943</v>
@@ -6164,13 +6164,13 @@
         <v>556784</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>1546</v>
@@ -6179,18 +6179,18 @@
         <v>1102704</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6202,13 +6202,13 @@
         <v>25065</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -6217,13 +6217,13 @@
         <v>32382</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -6232,13 +6232,13 @@
         <v>57447</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6253,13 @@
         <v>115337</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>443</v>
+        <v>529</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="H35" s="7">
         <v>281</v>
@@ -6268,13 +6268,13 @@
         <v>152724</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>185</v>
+        <v>530</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="M35" s="7">
         <v>440</v>
@@ -6283,13 +6283,13 @@
         <v>268061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6304,13 @@
         <v>193905</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>167</v>
+        <v>537</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H36" s="7">
         <v>482</v>
@@ -6319,13 +6319,13 @@
         <v>375880</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M36" s="7">
         <v>765</v>
@@ -6334,19 +6334,19 @@
         <v>569786</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>545</v>
+        <v>289</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>243</v>
@@ -6355,13 +6355,13 @@
         <v>160002</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H37" s="7">
         <v>360</v>
@@ -6370,13 +6370,13 @@
         <v>188312</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>177</v>
+        <v>547</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="M37" s="7">
         <v>603</v>
@@ -6385,19 +6385,19 @@
         <v>348315</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>271</v>
@@ -6406,13 +6406,13 @@
         <v>175620</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>554</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="H38" s="7">
         <v>454</v>
@@ -6421,13 +6421,13 @@
         <v>233510</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M38" s="7">
         <v>725</v>
@@ -6436,13 +6436,13 @@
         <v>409130</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6457,13 @@
         <v>669930</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>1633</v>
@@ -6472,13 +6472,13 @@
         <v>982809</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>2623</v>
@@ -6487,13 +6487,13 @@
         <v>1652739</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,7 +6531,7 @@
         <v>564</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>369</v>
+        <v>565</v>
       </c>
       <c r="M40" s="7">
         <v>518</v>
@@ -6540,13 +6540,13 @@
         <v>455475</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6561,13 @@
         <v>686590</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H41" s="7">
         <v>1090</v>
@@ -6576,10 +6576,10 @@
         <v>757524</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>572</v>
+        <v>248</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>573</v>
@@ -6618,7 +6618,7 @@
         <v>577</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>168</v>
+        <v>578</v>
       </c>
       <c r="H42" s="7">
         <v>1426</v>
@@ -6627,13 +6627,13 @@
         <v>1042409</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M42" s="7">
         <v>2271</v>
@@ -6642,19 +6642,19 @@
         <v>1828115</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>520</v>
@@ -6663,13 +6663,13 @@
         <v>446471</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H43" s="7">
         <v>847</v>
@@ -6678,13 +6678,13 @@
         <v>515653</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>588</v>
+        <v>401</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>589</v>
+        <v>181</v>
       </c>
       <c r="M43" s="7">
         <v>1367</v>
@@ -6693,19 +6693,19 @@
         <v>962124</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="P43" s="7" t="s">
-        <v>591</v>
-      </c>
       <c r="Q43" s="7" t="s">
-        <v>592</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>590</v>
@@ -6714,13 +6714,13 @@
         <v>494388</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>595</v>
       </c>
       <c r="H44" s="7">
         <v>1134</v>
@@ -6729,13 +6729,13 @@
         <v>710489</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M44" s="7">
         <v>1724</v>
@@ -6765,13 +6765,13 @@
         <v>2635656</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>4801</v>
@@ -6780,13 +6780,13 @@
         <v>3259050</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>7650</v>
@@ -6795,18 +6795,18 @@
         <v>5894706</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87943B0F-1635-43AD-A39B-DF2E5500E379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEF0775E-1E93-422D-83FB-BDF9540B8F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D977845D-73DB-43D7-A041-C17EEBE06E5D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E7288F32-A616-44BF-800D-BC7B8401D2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="686">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2016 (Tasa respuesta: 81,21%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Más de 3 años</t>
@@ -216,7 +216,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>19,17%</t>
@@ -354,7 +354,7 @@
     <t>15,63%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>13,89%</t>
@@ -486,7 +486,7 @@
     <t>16,82%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>13,87%</t>
@@ -618,7 +618,7 @@
     <t>19,32%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>9,82%</t>
@@ -747,1096 +747,1354 @@
     <t>25,69%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>14,92%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>26,88%</t>
   </si>
   <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
   </si>
 </sst>
 </file>
@@ -2248,8 +2506,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DED5563-5EA3-4ACD-8D8B-0D35F1C4530E}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3116FF23-BAD1-4787-B1F1-2E502266F2B0}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3906,10 +4164,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D34" s="7">
-        <v>19495</v>
+        <v>12917</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>237</v>
@@ -3921,10 +4179,10 @@
         <v>239</v>
       </c>
       <c r="H34" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I34" s="7">
-        <v>16829</v>
+        <v>8932</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>240</v>
@@ -3936,10 +4194,10 @@
         <v>242</v>
       </c>
       <c r="M34" s="7">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N34" s="7">
-        <v>36325</v>
+        <v>21848</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>243</v>
@@ -3957,10 +4215,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="D35" s="7">
-        <v>96218</v>
+        <v>67228</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>246</v>
@@ -3972,34 +4230,34 @@
         <v>248</v>
       </c>
       <c r="H35" s="7">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="I35" s="7">
-        <v>111441</v>
+        <v>52473</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="N35" s="7">
-        <v>207659</v>
+        <v>119702</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,49 +4266,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="D36" s="7">
-        <v>167146</v>
+        <v>93570</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
+        <v>120</v>
+      </c>
+      <c r="I36" s="7">
+        <v>127396</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" s="7">
         <v>213</v>
       </c>
-      <c r="I36" s="7">
-        <v>248569</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M36" s="7">
-        <v>394</v>
-      </c>
       <c r="N36" s="7">
-        <v>415716</v>
+        <v>220967</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,49 +4317,49 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="D37" s="7">
-        <v>122917</v>
+        <v>61022</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H37" s="7">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="I37" s="7">
-        <v>144676</v>
+        <v>74459</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="N37" s="7">
-        <v>267593</v>
+        <v>135481</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,49 +4368,49 @@
         <v>48</v>
       </c>
       <c r="C38" s="7">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="D38" s="7">
-        <v>157799</v>
+        <v>85463</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H38" s="7">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="I38" s="7">
-        <v>225547</v>
+        <v>100415</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M38" s="7">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="N38" s="7">
-        <v>383346</v>
+        <v>185878</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,10 +4419,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>597</v>
+        <v>311</v>
       </c>
       <c r="D39" s="7">
-        <v>563576</v>
+        <v>320200</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -4176,10 +4434,10 @@
         <v>58</v>
       </c>
       <c r="H39" s="7">
-        <v>629</v>
+        <v>340</v>
       </c>
       <c r="I39" s="7">
-        <v>747062</v>
+        <v>363675</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -4191,10 +4449,10 @@
         <v>58</v>
       </c>
       <c r="M39" s="7">
-        <v>1226</v>
+        <v>651</v>
       </c>
       <c r="N39" s="7">
-        <v>1310639</v>
+        <v>683875</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -4208,55 +4466,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="D40" s="7">
-        <v>312194</v>
+        <v>6579</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H40" s="7">
-        <v>244</v>
+        <v>6</v>
       </c>
       <c r="I40" s="7">
-        <v>252159</v>
+        <v>7898</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M40" s="7">
-        <v>540</v>
+        <v>14</v>
       </c>
       <c r="N40" s="7">
-        <v>564353</v>
+        <v>14476</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,49 +4523,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>691</v>
+        <v>35</v>
       </c>
       <c r="D41" s="7">
-        <v>725106</v>
+        <v>28989</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>64</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H41" s="7">
-        <v>743</v>
+        <v>45</v>
       </c>
       <c r="I41" s="7">
-        <v>779799</v>
+        <v>58968</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M41" s="7">
-        <v>1434</v>
+        <v>80</v>
       </c>
       <c r="N41" s="7">
-        <v>1504905</v>
+        <v>87957</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,40 +4574,40 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>740</v>
+        <v>88</v>
       </c>
       <c r="D42" s="7">
-        <v>767665</v>
+        <v>73576</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H42" s="7">
-        <v>854</v>
+        <v>93</v>
       </c>
       <c r="I42" s="7">
-        <v>915148</v>
+        <v>121173</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>301</v>
       </c>
       <c r="M42" s="7">
-        <v>1594</v>
+        <v>181</v>
       </c>
       <c r="N42" s="7">
-        <v>1682812</v>
+        <v>194749</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>302</v>
@@ -4367,49 +4625,49 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>348</v>
+        <v>73</v>
       </c>
       <c r="D43" s="7">
-        <v>364084</v>
+        <v>61896</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="H43" s="7">
-        <v>394</v>
+        <v>51</v>
       </c>
       <c r="I43" s="7">
-        <v>429020</v>
+        <v>70217</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>307</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="M43" s="7">
-        <v>742</v>
+        <v>124</v>
       </c>
       <c r="N43" s="7">
-        <v>793104</v>
+        <v>132113</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>140</v>
+        <v>311</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,49 +4676,49 @@
         <v>48</v>
       </c>
       <c r="C44" s="7">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="D44" s="7">
-        <v>469833</v>
+        <v>72336</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H44" s="7">
-        <v>575</v>
+        <v>94</v>
       </c>
       <c r="I44" s="7">
-        <v>630977</v>
+        <v>125132</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M44" s="7">
-        <v>1025</v>
+        <v>176</v>
       </c>
       <c r="N44" s="7">
-        <v>1100810</v>
+        <v>197468</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,63 +4727,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>286</v>
+      </c>
+      <c r="D45" s="7">
+        <v>243376</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="7">
+        <v>289</v>
+      </c>
+      <c r="I45" s="7">
+        <v>383387</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M45" s="7">
+        <v>575</v>
+      </c>
+      <c r="N45" s="7">
+        <v>626764</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>296</v>
+      </c>
+      <c r="D46" s="7">
+        <v>312194</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H46" s="7">
+        <v>244</v>
+      </c>
+      <c r="I46" s="7">
+        <v>252159</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M46" s="7">
+        <v>540</v>
+      </c>
+      <c r="N46" s="7">
+        <v>564353</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>691</v>
+      </c>
+      <c r="D47" s="7">
+        <v>725106</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" s="7">
+        <v>743</v>
+      </c>
+      <c r="I47" s="7">
+        <v>779799</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1434</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1504905</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>740</v>
+      </c>
+      <c r="D48" s="7">
+        <v>767665</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H48" s="7">
+        <v>854</v>
+      </c>
+      <c r="I48" s="7">
+        <v>915148</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1594</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1682812</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>348</v>
+      </c>
+      <c r="D49" s="7">
+        <v>364084</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H49" s="7">
+        <v>394</v>
+      </c>
+      <c r="I49" s="7">
+        <v>429020</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M49" s="7">
+        <v>742</v>
+      </c>
+      <c r="N49" s="7">
+        <v>793104</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7">
+        <v>450</v>
+      </c>
+      <c r="D50" s="7">
+        <v>469833</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H50" s="7">
+        <v>575</v>
+      </c>
+      <c r="I50" s="7">
+        <v>630977</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1025</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1100810</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>2525</v>
       </c>
-      <c r="D45" s="7">
-        <v>2638882</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>2638881</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="7">
         <v>2810</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3007103</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="7">
         <v>5335</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>5645984</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>319</v>
+      <c r="O51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4538,8 +5105,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2A34A-9FCB-4E1A-B0BF-D35CA369C138}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EEDDF6-12EE-4748-9C47-59E3D770D255}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4555,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4659,46 +5226,46 @@
         <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>29590</v>
+        <v>32626</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>30313</v>
+        <v>27986</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>59903</v>
+        <v>60611</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,46 +5277,46 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>53153</v>
+        <v>64290</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>43692</v>
+        <v>42574</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
       </c>
       <c r="N5" s="7">
-        <v>96846</v>
+        <v>106863</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,46 +5328,46 @@
         <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>48458</v>
+        <v>57781</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>51384</v>
+        <v>46072</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="M6" s="7">
         <v>49</v>
       </c>
       <c r="N6" s="7">
-        <v>99842</v>
+        <v>103854</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,46 +5379,46 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>20122</v>
+        <v>22227</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>23374</v>
+        <v>20554</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>43496</v>
+        <v>42782</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,46 +5430,46 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>9012</v>
+        <v>9481</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>52113</v>
+        <v>48581</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
       </c>
       <c r="N8" s="7">
-        <v>61125</v>
+        <v>58062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,7 +5481,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="7">
-        <v>160335</v>
+        <v>186405</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -4929,7 +5496,7 @@
         <v>122</v>
       </c>
       <c r="I9" s="7">
-        <v>200877</v>
+        <v>185767</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -4944,7 +5511,7 @@
         <v>199</v>
       </c>
       <c r="N9" s="7">
-        <v>361212</v>
+        <v>372172</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -4967,46 +5534,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>32132</v>
+        <v>32792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>41475</v>
+        <v>37861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>73606</v>
+        <v>70653</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,46 +5585,46 @@
         <v>75</v>
       </c>
       <c r="D11" s="7">
-        <v>104382</v>
+        <v>104889</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
       </c>
       <c r="I11" s="7">
-        <v>118041</v>
+        <v>108637</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="M11" s="7">
         <v>186</v>
       </c>
       <c r="N11" s="7">
-        <v>222423</v>
+        <v>213526</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,46 +5636,46 @@
         <v>55</v>
       </c>
       <c r="D12" s="7">
-        <v>79133</v>
+        <v>77758</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="H12" s="7">
         <v>97</v>
       </c>
       <c r="I12" s="7">
-        <v>93965</v>
+        <v>88842</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="M12" s="7">
         <v>152</v>
       </c>
       <c r="N12" s="7">
-        <v>173098</v>
+        <v>166600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,46 +5687,46 @@
         <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>27903</v>
+        <v>28914</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>45954</v>
+        <v>42188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>73857</v>
+        <v>71102</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,46 +5738,46 @@
         <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>24954</v>
+        <v>26578</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
       </c>
       <c r="I14" s="7">
-        <v>62985</v>
+        <v>60507</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>78</v>
       </c>
       <c r="N14" s="7">
-        <v>87939</v>
+        <v>87085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,7 +5789,7 @@
         <v>194</v>
       </c>
       <c r="D15" s="7">
-        <v>268505</v>
+        <v>270931</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -5237,7 +5804,7 @@
         <v>350</v>
       </c>
       <c r="I15" s="7">
-        <v>362419</v>
+        <v>338035</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -5252,7 +5819,7 @@
         <v>544</v>
       </c>
       <c r="N15" s="7">
-        <v>630924</v>
+        <v>608966</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -5275,46 +5842,46 @@
         <v>45</v>
       </c>
       <c r="D16" s="7">
-        <v>46963</v>
+        <v>45601</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
       </c>
       <c r="I16" s="7">
-        <v>48758</v>
+        <v>45283</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
       </c>
       <c r="N16" s="7">
-        <v>95721</v>
+        <v>90885</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,46 +5893,46 @@
         <v>127</v>
       </c>
       <c r="D17" s="7">
-        <v>127865</v>
+        <v>123896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
       </c>
       <c r="I17" s="7">
-        <v>147983</v>
+        <v>137582</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>334</v>
       </c>
       <c r="N17" s="7">
-        <v>275848</v>
+        <v>261478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>417</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,46 +5944,46 @@
         <v>126</v>
       </c>
       <c r="D18" s="7">
-        <v>129925</v>
+        <v>126526</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>464</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>342</v>
+        <v>465</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
       </c>
       <c r="I18" s="7">
-        <v>138155</v>
+        <v>129388</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="M18" s="7">
         <v>334</v>
       </c>
       <c r="N18" s="7">
-        <v>268080</v>
+        <v>255913</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,46 +5995,46 @@
         <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>59633</v>
+        <v>59123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
       </c>
       <c r="I19" s="7">
-        <v>59208</v>
+        <v>56010</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>194</v>
+        <v>449</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
       </c>
       <c r="N19" s="7">
-        <v>118841</v>
+        <v>115133</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>433</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>55</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,46 +6046,46 @@
         <v>57</v>
       </c>
       <c r="D20" s="7">
-        <v>58085</v>
+        <v>57889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
       </c>
       <c r="I20" s="7">
-        <v>93523</v>
+        <v>89096</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
       </c>
       <c r="N20" s="7">
-        <v>151608</v>
+        <v>146986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,7 +6097,7 @@
         <v>413</v>
       </c>
       <c r="D21" s="7">
-        <v>422471</v>
+        <v>413035</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -5545,7 +6112,7 @@
         <v>720</v>
       </c>
       <c r="I21" s="7">
-        <v>487628</v>
+        <v>457360</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -5560,7 +6127,7 @@
         <v>1133</v>
       </c>
       <c r="N21" s="7">
-        <v>910099</v>
+        <v>870395</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -5583,46 +6150,46 @@
         <v>43</v>
       </c>
       <c r="D22" s="7">
-        <v>41309</v>
+        <v>39851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
       </c>
       <c r="I22" s="7">
-        <v>46499</v>
+        <v>43190</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>111</v>
       </c>
       <c r="N22" s="7">
-        <v>87808</v>
+        <v>83041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,46 +6201,46 @@
         <v>155</v>
       </c>
       <c r="D23" s="7">
-        <v>152936</v>
+        <v>145403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>452</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>274</v>
       </c>
       <c r="I23" s="7">
-        <v>182005</v>
+        <v>167484</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>429</v>
       </c>
       <c r="N23" s="7">
-        <v>334941</v>
+        <v>312887</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,46 +6252,46 @@
         <v>184</v>
       </c>
       <c r="D24" s="7">
-        <v>183765</v>
+        <v>173398</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="H24" s="7">
         <v>317</v>
       </c>
       <c r="I24" s="7">
-        <v>209319</v>
+        <v>216804</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>505</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>378</v>
+        <v>507</v>
       </c>
       <c r="M24" s="7">
         <v>501</v>
       </c>
       <c r="N24" s="7">
-        <v>393084</v>
+        <v>390201</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>508</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>216</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,46 +6303,46 @@
         <v>73</v>
       </c>
       <c r="D25" s="7">
-        <v>73775</v>
+        <v>70581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>513</v>
       </c>
       <c r="H25" s="7">
         <v>154</v>
       </c>
       <c r="I25" s="7">
-        <v>92614</v>
+        <v>86202</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>468</v>
+        <v>104</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
       </c>
       <c r="N25" s="7">
-        <v>166389</v>
+        <v>156784</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>516</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>278</v>
+        <v>517</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,46 +6354,46 @@
         <v>117</v>
       </c>
       <c r="D26" s="7">
-        <v>116709</v>
+        <v>115103</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="H26" s="7">
         <v>220</v>
       </c>
       <c r="I26" s="7">
-        <v>138097</v>
+        <v>130118</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>524</v>
       </c>
       <c r="M26" s="7">
         <v>337</v>
       </c>
       <c r="N26" s="7">
-        <v>254806</v>
+        <v>245221</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,7 +6405,7 @@
         <v>572</v>
       </c>
       <c r="D27" s="7">
-        <v>568494</v>
+        <v>544337</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>58</v>
@@ -5853,7 +6420,7 @@
         <v>1033</v>
       </c>
       <c r="I27" s="7">
-        <v>668534</v>
+        <v>643798</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -5868,7 +6435,7 @@
         <v>1605</v>
       </c>
       <c r="N27" s="7">
-        <v>1237028</v>
+        <v>1188134</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -5891,46 +6458,46 @@
         <v>48</v>
       </c>
       <c r="D28" s="7">
-        <v>47441</v>
+        <v>44989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="H28" s="7">
         <v>54</v>
       </c>
       <c r="I28" s="7">
-        <v>33549</v>
+        <v>30732</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
       </c>
       <c r="N28" s="7">
-        <v>80989</v>
+        <v>75721</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>43</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,46 +6509,46 @@
         <v>136</v>
       </c>
       <c r="D29" s="7">
-        <v>132916</v>
+        <v>123318</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>485</v>
+        <v>265</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
       </c>
       <c r="I29" s="7">
-        <v>113079</v>
+        <v>104043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="M29" s="7">
         <v>324</v>
       </c>
       <c r="N29" s="7">
-        <v>245995</v>
+        <v>227361</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>492</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,46 +6560,46 @@
         <v>178</v>
       </c>
       <c r="D30" s="7">
-        <v>150520</v>
+        <v>140822</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>493</v>
+        <v>331</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="H30" s="7">
         <v>292</v>
       </c>
       <c r="I30" s="7">
-        <v>173705</v>
+        <v>158980</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="M30" s="7">
         <v>470</v>
       </c>
       <c r="N30" s="7">
-        <v>324226</v>
+        <v>299802</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>167</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,46 +6611,46 @@
         <v>119</v>
       </c>
       <c r="D31" s="7">
-        <v>105035</v>
+        <v>97170</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>502</v>
+        <v>187</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="H31" s="7">
         <v>184</v>
       </c>
       <c r="I31" s="7">
-        <v>106191</v>
+        <v>97167</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>506</v>
+        <v>426</v>
       </c>
       <c r="M31" s="7">
         <v>303</v>
       </c>
       <c r="N31" s="7">
-        <v>211226</v>
+        <v>194337</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,46 +6662,46 @@
         <v>122</v>
       </c>
       <c r="D32" s="7">
-        <v>110008</v>
+        <v>106080</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>512</v>
+        <v>560</v>
       </c>
       <c r="H32" s="7">
         <v>225</v>
       </c>
       <c r="I32" s="7">
-        <v>130260</v>
+        <v>120888</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>513</v>
+        <v>561</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>514</v>
+        <v>562</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>515</v>
+        <v>563</v>
       </c>
       <c r="M32" s="7">
         <v>347</v>
       </c>
       <c r="N32" s="7">
-        <v>240269</v>
+        <v>226968</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>516</v>
+        <v>564</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,7 +6713,7 @@
         <v>603</v>
       </c>
       <c r="D33" s="7">
-        <v>545920</v>
+        <v>512379</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>58</v>
@@ -6161,7 +6728,7 @@
         <v>943</v>
       </c>
       <c r="I33" s="7">
-        <v>556784</v>
+        <v>511811</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -6176,7 +6743,7 @@
         <v>1546</v>
       </c>
       <c r="N33" s="7">
-        <v>1102704</v>
+        <v>1024190</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>58</v>
@@ -6196,49 +6763,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D34" s="7">
-        <v>25065</v>
+        <v>15157</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>519</v>
+        <v>567</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
       <c r="H34" s="7">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I34" s="7">
-        <v>32382</v>
+        <v>14516</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="M34" s="7">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N34" s="7">
-        <v>57447</v>
+        <v>29673</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,49 +6814,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="D35" s="7">
-        <v>115337</v>
+        <v>64292</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>101</v>
+        <v>578</v>
       </c>
       <c r="H35" s="7">
-        <v>281</v>
+        <v>161</v>
       </c>
       <c r="I35" s="7">
-        <v>152724</v>
+        <v>79349</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>530</v>
+        <v>579</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>531</v>
+        <v>580</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>532</v>
+        <v>581</v>
       </c>
       <c r="M35" s="7">
-        <v>440</v>
+        <v>255</v>
       </c>
       <c r="N35" s="7">
-        <v>268061</v>
+        <v>143641</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>534</v>
+        <v>583</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,49 +6865,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="D36" s="7">
-        <v>193905</v>
+        <v>104177</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>536</v>
+        <v>585</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>537</v>
+        <v>586</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>538</v>
+        <v>587</v>
       </c>
       <c r="H36" s="7">
-        <v>482</v>
+        <v>262</v>
       </c>
       <c r="I36" s="7">
-        <v>375880</v>
+        <v>335685</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>539</v>
+        <v>588</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>540</v>
+        <v>589</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="M36" s="7">
-        <v>765</v>
+        <v>426</v>
       </c>
       <c r="N36" s="7">
-        <v>569786</v>
+        <v>439862</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>542</v>
+        <v>591</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>289</v>
+        <v>592</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,49 +6916,49 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="D37" s="7">
-        <v>160002</v>
+        <v>69070</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>545</v>
+        <v>595</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="H37" s="7">
-        <v>360</v>
+        <v>142</v>
       </c>
       <c r="I37" s="7">
-        <v>188312</v>
+        <v>68211</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="M37" s="7">
-        <v>603</v>
+        <v>254</v>
       </c>
       <c r="N37" s="7">
-        <v>348315</v>
+        <v>137281</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>549</v>
+        <v>146</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,49 +6967,49 @@
         <v>48</v>
       </c>
       <c r="C38" s="7">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D38" s="7">
-        <v>175620</v>
+        <v>95709</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>553</v>
+        <v>603</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>259</v>
+        <v>604</v>
       </c>
       <c r="H38" s="7">
-        <v>454</v>
+        <v>203</v>
       </c>
       <c r="I38" s="7">
-        <v>233510</v>
+        <v>95668</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>554</v>
+        <v>605</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>555</v>
+        <v>606</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="M38" s="7">
-        <v>725</v>
+        <v>352</v>
       </c>
       <c r="N38" s="7">
-        <v>409130</v>
+        <v>191377</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>557</v>
+        <v>608</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>558</v>
+        <v>609</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>559</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,10 +7018,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>990</v>
+        <v>541</v>
       </c>
       <c r="D39" s="7">
-        <v>669930</v>
+        <v>348405</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -6466,10 +7033,10 @@
         <v>58</v>
       </c>
       <c r="H39" s="7">
-        <v>1633</v>
+        <v>796</v>
       </c>
       <c r="I39" s="7">
-        <v>982809</v>
+        <v>593429</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -6481,10 +7048,10 @@
         <v>58</v>
       </c>
       <c r="M39" s="7">
-        <v>2623</v>
+        <v>1337</v>
       </c>
       <c r="N39" s="7">
-        <v>1652739</v>
+        <v>941834</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -6498,55 +7065,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="D40" s="7">
-        <v>222500</v>
+        <v>8435</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>560</v>
+        <v>611</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="H40" s="7">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="I40" s="7">
-        <v>232976</v>
+        <v>15114</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>563</v>
+        <v>613</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>565</v>
+        <v>41</v>
       </c>
       <c r="M40" s="7">
-        <v>518</v>
+        <v>40</v>
       </c>
       <c r="N40" s="7">
-        <v>455475</v>
+        <v>23549</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>568</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,49 +7122,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>680</v>
+        <v>65</v>
       </c>
       <c r="D41" s="7">
-        <v>686590</v>
+        <v>42782</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>569</v>
+        <v>618</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>570</v>
+        <v>619</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>571</v>
+        <v>620</v>
       </c>
       <c r="H41" s="7">
-        <v>1090</v>
+        <v>120</v>
       </c>
       <c r="I41" s="7">
-        <v>757524</v>
+        <v>60099</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>248</v>
+        <v>622</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>573</v>
+        <v>623</v>
       </c>
       <c r="M41" s="7">
-        <v>1770</v>
+        <v>185</v>
       </c>
       <c r="N41" s="7">
-        <v>1444115</v>
+        <v>102881</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>574</v>
+        <v>624</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>576</v>
+        <v>626</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,49 +7173,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>845</v>
+        <v>119</v>
       </c>
       <c r="D42" s="7">
-        <v>785706</v>
+        <v>74409</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>302</v>
+        <v>627</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>577</v>
+        <v>628</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
       <c r="H42" s="7">
-        <v>1426</v>
+        <v>220</v>
       </c>
       <c r="I42" s="7">
-        <v>1042409</v>
+        <v>108459</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>579</v>
+        <v>630</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>581</v>
+        <v>455</v>
       </c>
       <c r="M42" s="7">
-        <v>2271</v>
+        <v>339</v>
       </c>
       <c r="N42" s="7">
-        <v>1828115</v>
+        <v>182869</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>582</v>
+        <v>632</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>584</v>
+        <v>634</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,49 +7224,49 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>520</v>
+        <v>131</v>
       </c>
       <c r="D43" s="7">
-        <v>446471</v>
+        <v>78580</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>585</v>
+        <v>78</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="H43" s="7">
-        <v>847</v>
+        <v>218</v>
       </c>
       <c r="I43" s="7">
-        <v>515653</v>
+        <v>100877</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>401</v>
+        <v>637</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>181</v>
+        <v>638</v>
       </c>
       <c r="M43" s="7">
-        <v>1367</v>
+        <v>349</v>
       </c>
       <c r="N43" s="7">
-        <v>962124</v>
+        <v>179457</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>589</v>
+        <v>639</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>400</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,49 +7275,49 @@
         <v>48</v>
       </c>
       <c r="C44" s="7">
-        <v>590</v>
+        <v>122</v>
       </c>
       <c r="D44" s="7">
-        <v>494388</v>
+        <v>72585</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>591</v>
+        <v>641</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>592</v>
+        <v>642</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>593</v>
+        <v>121</v>
       </c>
       <c r="H44" s="7">
-        <v>1134</v>
+        <v>251</v>
       </c>
       <c r="I44" s="7">
-        <v>710489</v>
+        <v>118193</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>594</v>
+        <v>643</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>595</v>
+        <v>644</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>596</v>
+        <v>645</v>
       </c>
       <c r="M44" s="7">
-        <v>1724</v>
+        <v>373</v>
       </c>
       <c r="N44" s="7">
-        <v>1204877</v>
+        <v>190779</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>597</v>
+        <v>646</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>599</v>
+        <v>648</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,63 +7326,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>449</v>
+      </c>
+      <c r="D45" s="7">
+        <v>276791</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="7">
+        <v>837</v>
+      </c>
+      <c r="I45" s="7">
+        <v>402743</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1286</v>
+      </c>
+      <c r="N45" s="7">
+        <v>679534</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>214</v>
+      </c>
+      <c r="D46" s="7">
+        <v>219452</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="H46" s="7">
+        <v>304</v>
+      </c>
+      <c r="I46" s="7">
+        <v>214681</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M46" s="7">
+        <v>518</v>
+      </c>
+      <c r="N46" s="7">
+        <v>434133</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>680</v>
+      </c>
+      <c r="D47" s="7">
+        <v>668869</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1090</v>
+      </c>
+      <c r="I47" s="7">
+        <v>699768</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1770</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1368637</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>845</v>
+      </c>
+      <c r="D48" s="7">
+        <v>754872</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1426</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1084229</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2271</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1839101</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>520</v>
+      </c>
+      <c r="D49" s="7">
+        <v>425664</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="H49" s="7">
+        <v>847</v>
+      </c>
+      <c r="I49" s="7">
+        <v>471211</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1367</v>
+      </c>
+      <c r="N49" s="7">
+        <v>896876</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7">
+        <v>590</v>
+      </c>
+      <c r="D50" s="7">
+        <v>483425</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1134</v>
+      </c>
+      <c r="I50" s="7">
+        <v>663053</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1724</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1146478</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>2849</v>
       </c>
-      <c r="D45" s="7">
-        <v>2635656</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>2552282</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="7">
         <v>4801</v>
       </c>
-      <c r="I45" s="7">
-        <v>3259050</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3132942</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="7">
         <v>7650</v>
       </c>
-      <c r="N45" s="7">
-        <v>5894706</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>319</v>
+      <c r="N51" s="7">
+        <v>5685225</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
